--- a/ideas and math/battery length.xlsx
+++ b/ideas and math/battery length.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\RC-Ultimate\ideas and math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AC3BF0-347D-4BC7-AAB6-F28FA44B85EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081E51FC-006C-43A1-8BA9-821767EB5693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1F7AE5A-4B9E-486F-A145-859DF4ECBD96}"/>
   </bookViews>
@@ -63,10 +63,10 @@
     <t>joystick</t>
   </si>
   <si>
-    <t>using 200*2</t>
-  </si>
-  <si>
     <t>power LED</t>
+  </si>
+  <si>
+    <t>using CR2032</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <dimension ref="B2:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +448,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -508,11 +508,11 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <f>400/C12</f>
-        <v>5.4794520547945202</v>
+        <f>235/C12</f>
+        <v>3.2191780821917808</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
